--- a/ressources/donneecaisse.xlsx
+++ b/ressources/donneecaisse.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\maa_code\RPA_CAISSE\ressources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\maa_code\RPA_CAISSE\ressources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="17376" windowHeight="5760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640"/>
   </bookViews>
   <sheets>
     <sheet name="rapport" sheetId="1" r:id="rId1"/>
@@ -46,40 +46,40 @@
     <t>Email du responsable:</t>
   </si>
   <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Montant</t>
+  </si>
+  <si>
+    <t>Carte bancaire</t>
+  </si>
+  <si>
+    <t>Espèces</t>
+  </si>
+  <si>
+    <t>Ticket restaurant</t>
+  </si>
+  <si>
+    <t>Prelèvement</t>
+  </si>
+  <si>
+    <t>Apport monnaie</t>
+  </si>
+  <si>
+    <t>Journée</t>
+  </si>
+  <si>
+    <t>Montants encaissés par type d'encaissement</t>
+  </si>
+  <si>
+    <t>Nom du responsable</t>
+  </si>
+  <si>
+    <t>Romeo BEYARA</t>
+  </si>
+  <si>
     <t>romeo.beyara@eburtis.ci</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Montant</t>
-  </si>
-  <si>
-    <t>Carte bancaire</t>
-  </si>
-  <si>
-    <t>Espèces</t>
-  </si>
-  <si>
-    <t>Ticket restaurant</t>
-  </si>
-  <si>
-    <t>Prelèvement</t>
-  </si>
-  <si>
-    <t>Apport monnaie</t>
-  </si>
-  <si>
-    <t>Journée</t>
-  </si>
-  <si>
-    <t>Montants encaissés par type d'encaissement</t>
-  </si>
-  <si>
-    <t>Nom du responsable</t>
-  </si>
-  <si>
-    <t>Romeo BEYARA</t>
   </si>
 </sst>
 </file>
@@ -178,9 +178,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -190,6 +187,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -530,7 +530,7 @@
   <dimension ref="A2:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -549,99 +549,99 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="10"/>
-      <c r="C4" s="2" t="s">
-        <v>3</v>
+      <c r="C4" s="8" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="7">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="6">
         <v>45065</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
-      <c r="E9" s="5"/>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" s="14"/>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>12000</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" s="14"/>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>5000</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" s="14"/>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>1000</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" s="14"/>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>14000</v>
       </c>
-      <c r="E15" s="5"/>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" s="14"/>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>3000</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="E16" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="10">
